--- a/data/pca/factorExposure/factorExposure_2015-09-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02563785272097369</v>
+        <v>-0.01903783354480947</v>
       </c>
       <c r="C2">
-        <v>0.03215951377716035</v>
+        <v>-0.04563237094313995</v>
       </c>
       <c r="D2">
-        <v>-0.1298972065619638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1408396448852022</v>
+      </c>
+      <c r="E2">
+        <v>-0.008354329719740639</v>
+      </c>
+      <c r="F2">
+        <v>-0.001384469927942592</v>
+      </c>
+      <c r="G2">
+        <v>-0.1085993990363878</v>
+      </c>
+      <c r="H2">
+        <v>0.003820673002019403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.005258489264863424</v>
+        <v>0.01045226354268801</v>
       </c>
       <c r="C3">
-        <v>0.05750343473692555</v>
+        <v>-0.04074016270851945</v>
       </c>
       <c r="D3">
-        <v>-0.07702921499159605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05232775112823514</v>
+      </c>
+      <c r="E3">
+        <v>-0.04566379188721706</v>
+      </c>
+      <c r="F3">
+        <v>0.007926006463743846</v>
+      </c>
+      <c r="G3">
+        <v>-0.1305786735287969</v>
+      </c>
+      <c r="H3">
+        <v>-0.01979048054046114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04971097265274729</v>
+        <v>-0.0401750271756498</v>
       </c>
       <c r="C4">
-        <v>0.06686691277770325</v>
+        <v>-0.08440634373742446</v>
       </c>
       <c r="D4">
-        <v>-0.1372684160701115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1523294723144875</v>
+      </c>
+      <c r="E4">
+        <v>-0.02972406974308763</v>
+      </c>
+      <c r="F4">
+        <v>0.07484740005502237</v>
+      </c>
+      <c r="G4">
+        <v>0.01170205254003137</v>
+      </c>
+      <c r="H4">
+        <v>-0.03976894290316805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03219964060346581</v>
+        <v>-0.03127293128623217</v>
       </c>
       <c r="C6">
-        <v>0.02342765523546901</v>
+        <v>-0.0334124217600715</v>
       </c>
       <c r="D6">
-        <v>-0.1594911052922883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1407217992025894</v>
+      </c>
+      <c r="E6">
+        <v>0.02080480445420119</v>
+      </c>
+      <c r="F6">
+        <v>0.0583141120690276</v>
+      </c>
+      <c r="G6">
+        <v>-0.05753321976195786</v>
+      </c>
+      <c r="H6">
+        <v>-0.01136600249787338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01675348784013663</v>
+        <v>-0.01172038487450864</v>
       </c>
       <c r="C7">
-        <v>0.03112155795512015</v>
+        <v>-0.03821891241502518</v>
       </c>
       <c r="D7">
-        <v>-0.1194883779249469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0993651034065243</v>
+      </c>
+      <c r="E7">
+        <v>0.03384676595086807</v>
+      </c>
+      <c r="F7">
+        <v>0.0187897228002611</v>
+      </c>
+      <c r="G7">
+        <v>-0.05884970605719373</v>
+      </c>
+      <c r="H7">
+        <v>-0.03968350637869789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01109277964240704</v>
+        <v>-0.00393441791358503</v>
       </c>
       <c r="C8">
-        <v>0.03527899909978044</v>
+        <v>-0.04063894747789789</v>
       </c>
       <c r="D8">
-        <v>-0.08006497785619224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08254595352829382</v>
+      </c>
+      <c r="E8">
+        <v>0.00583397230777022</v>
+      </c>
+      <c r="F8">
+        <v>0.0488070278668901</v>
+      </c>
+      <c r="G8">
+        <v>-0.07637023127425205</v>
+      </c>
+      <c r="H8">
+        <v>0.036304889604659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03831147320984896</v>
+        <v>-0.02964795166861132</v>
       </c>
       <c r="C9">
-        <v>0.05988907657819038</v>
+        <v>-0.07274467917210788</v>
       </c>
       <c r="D9">
-        <v>-0.1256419762333881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1273636906200463</v>
+      </c>
+      <c r="E9">
+        <v>-0.01816043006697832</v>
+      </c>
+      <c r="F9">
+        <v>0.046863431693072</v>
+      </c>
+      <c r="G9">
+        <v>0.009710065637504078</v>
+      </c>
+      <c r="H9">
+        <v>-0.03947216900389098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1339617511050371</v>
+        <v>-0.1874540693007561</v>
       </c>
       <c r="C10">
-        <v>-0.1856839985648931</v>
+        <v>0.1595314337792976</v>
       </c>
       <c r="D10">
-        <v>-0.007164199382977163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01378773725289129</v>
+      </c>
+      <c r="E10">
+        <v>-0.02812657238923464</v>
+      </c>
+      <c r="F10">
+        <v>0.04601883748690318</v>
+      </c>
+      <c r="G10">
+        <v>0.02589027601283005</v>
+      </c>
+      <c r="H10">
+        <v>0.05764398959231714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03252255024447556</v>
+        <v>-0.02419019844468578</v>
       </c>
       <c r="C11">
-        <v>0.04289270629384923</v>
+        <v>-0.05221714997235385</v>
       </c>
       <c r="D11">
-        <v>-0.05938542529808644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05164558088358545</v>
+      </c>
+      <c r="E11">
+        <v>0.02199986095818424</v>
+      </c>
+      <c r="F11">
+        <v>-0.01271395323393909</v>
+      </c>
+      <c r="G11">
+        <v>-0.02689183245377571</v>
+      </c>
+      <c r="H11">
+        <v>-0.0383249048674763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03811266007449855</v>
+        <v>-0.02707861654466321</v>
       </c>
       <c r="C12">
-        <v>0.04614564283077675</v>
+        <v>-0.05465543920436163</v>
       </c>
       <c r="D12">
-        <v>-0.07184514846697526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05347316802392493</v>
+      </c>
+      <c r="E12">
+        <v>0.01799565001597153</v>
+      </c>
+      <c r="F12">
+        <v>-0.01919418727966704</v>
+      </c>
+      <c r="G12">
+        <v>-0.02861846249291046</v>
+      </c>
+      <c r="H12">
+        <v>-0.06648274921408129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01011993446568362</v>
+        <v>-0.01033255953336161</v>
       </c>
       <c r="C13">
-        <v>0.03708841345105772</v>
+        <v>-0.04724510729642478</v>
       </c>
       <c r="D13">
-        <v>-0.1624910127521023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1657748731368647</v>
+      </c>
+      <c r="E13">
+        <v>0.02882535292834253</v>
+      </c>
+      <c r="F13">
+        <v>0.04591514295721606</v>
+      </c>
+      <c r="G13">
+        <v>-0.06546699446647991</v>
+      </c>
+      <c r="H13">
+        <v>-0.0258351911888927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.003129834176912861</v>
+        <v>-0.003342664955622936</v>
       </c>
       <c r="C14">
-        <v>0.02532573553089777</v>
+        <v>-0.02877187221278061</v>
       </c>
       <c r="D14">
-        <v>-0.1149309132917805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1082042691455686</v>
+      </c>
+      <c r="E14">
+        <v>0.01224463263656005</v>
+      </c>
+      <c r="F14">
+        <v>0.01835788003511931</v>
+      </c>
+      <c r="G14">
+        <v>-0.08468695706732801</v>
+      </c>
+      <c r="H14">
+        <v>-0.06622641871205343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002768502893209569</v>
+        <v>-0.0009310445591335864</v>
       </c>
       <c r="C15">
-        <v>0.006007279109095249</v>
+        <v>-0.01501228934558638</v>
       </c>
       <c r="D15">
-        <v>-0.01273557151798382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04350449139492953</v>
+      </c>
+      <c r="E15">
+        <v>0.001125690855887401</v>
+      </c>
+      <c r="F15">
+        <v>0.002400725080746049</v>
+      </c>
+      <c r="G15">
+        <v>-0.01851122830616135</v>
+      </c>
+      <c r="H15">
+        <v>-0.0008821968521936008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02903669303289948</v>
+        <v>-0.02184095924676501</v>
       </c>
       <c r="C16">
-        <v>0.04474590530329584</v>
+        <v>-0.0510072584370633</v>
       </c>
       <c r="D16">
-        <v>-0.07542009365830896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06006155591331004</v>
+      </c>
+      <c r="E16">
+        <v>0.01427900641624472</v>
+      </c>
+      <c r="F16">
+        <v>-0.001885437613792124</v>
+      </c>
+      <c r="G16">
+        <v>-0.03860751877490692</v>
+      </c>
+      <c r="H16">
+        <v>-0.05868871656383429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01073682267516488</v>
+        <v>-0.005438340450565848</v>
       </c>
       <c r="C19">
-        <v>0.03124841146152502</v>
+        <v>-0.02758258073915057</v>
       </c>
       <c r="D19">
-        <v>-0.1686688131092155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1168562155683212</v>
+      </c>
+      <c r="E19">
+        <v>-0.02407015459813501</v>
+      </c>
+      <c r="F19">
+        <v>0.004895294850219362</v>
+      </c>
+      <c r="G19">
+        <v>-0.05617231032805269</v>
+      </c>
+      <c r="H19">
+        <v>-0.05789378512191912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0138939201745864</v>
+        <v>-0.01219037120554517</v>
       </c>
       <c r="C20">
-        <v>0.03541597224017176</v>
+        <v>-0.0407053516566562</v>
       </c>
       <c r="D20">
-        <v>-0.1079879975680908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1089545473479998</v>
+      </c>
+      <c r="E20">
+        <v>-0.01130316050193873</v>
+      </c>
+      <c r="F20">
+        <v>0.02765740129790236</v>
+      </c>
+      <c r="G20">
+        <v>-0.05368580868222024</v>
+      </c>
+      <c r="H20">
+        <v>-0.04543721753823797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01002126404008084</v>
+        <v>-0.004626462875617965</v>
       </c>
       <c r="C21">
-        <v>0.0366334822111527</v>
+        <v>-0.04415238105686069</v>
       </c>
       <c r="D21">
-        <v>-0.1790983493375746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1603273489121766</v>
+      </c>
+      <c r="E21">
+        <v>-0.02958048155626597</v>
+      </c>
+      <c r="F21">
+        <v>0.06610653764390692</v>
+      </c>
+      <c r="G21">
+        <v>-0.09184110843326074</v>
+      </c>
+      <c r="H21">
+        <v>-0.09046036027184658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00234572836900558</v>
+        <v>-0.002322465984189921</v>
       </c>
       <c r="C22">
-        <v>0.05029690914531813</v>
+        <v>-0.0592932370682737</v>
       </c>
       <c r="D22">
-        <v>-0.1517439425392661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2137911321456362</v>
+      </c>
+      <c r="E22">
+        <v>0.04116369597413057</v>
+      </c>
+      <c r="F22">
+        <v>0.03583277096586242</v>
+      </c>
+      <c r="G22">
+        <v>0.01048569618768671</v>
+      </c>
+      <c r="H22">
+        <v>0.4746614633544142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002520478809935189</v>
+        <v>-0.002798783111841777</v>
       </c>
       <c r="C23">
-        <v>0.05062955770169288</v>
+        <v>-0.0596893907280792</v>
       </c>
       <c r="D23">
-        <v>-0.1512798220311996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2139914760357242</v>
+      </c>
+      <c r="E23">
+        <v>0.03875518961862721</v>
+      </c>
+      <c r="F23">
+        <v>0.03448258612657936</v>
+      </c>
+      <c r="G23">
+        <v>0.0122377816572328</v>
+      </c>
+      <c r="H23">
+        <v>0.4747126089704592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03563662821985426</v>
+        <v>-0.02413754861645971</v>
       </c>
       <c r="C24">
-        <v>0.05738121549577867</v>
+        <v>-0.06318008226747666</v>
       </c>
       <c r="D24">
-        <v>-0.07386427071302368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05908080822116466</v>
+      </c>
+      <c r="E24">
+        <v>0.01529284365185458</v>
+      </c>
+      <c r="F24">
+        <v>0.001024732012202644</v>
+      </c>
+      <c r="G24">
+        <v>-0.04561855393376774</v>
+      </c>
+      <c r="H24">
+        <v>-0.06410891025848456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04060413236714252</v>
+        <v>-0.02948872045913394</v>
       </c>
       <c r="C25">
-        <v>0.05158311158450594</v>
+        <v>-0.06083185150291365</v>
       </c>
       <c r="D25">
-        <v>-0.0740546697483518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0612958138951909</v>
+      </c>
+      <c r="E25">
+        <v>0.006034529983068282</v>
+      </c>
+      <c r="F25">
+        <v>-0.00661305358586377</v>
+      </c>
+      <c r="G25">
+        <v>-0.02274117909952248</v>
+      </c>
+      <c r="H25">
+        <v>-0.04352257212704476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.013142088378112</v>
+        <v>-0.01112009288520636</v>
       </c>
       <c r="C26">
-        <v>0.0150964951013845</v>
+        <v>-0.02385603528352445</v>
       </c>
       <c r="D26">
-        <v>-0.08085601340706845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07212414400292333</v>
+      </c>
+      <c r="E26">
+        <v>0.009427397653315253</v>
+      </c>
+      <c r="F26">
+        <v>0.0233006094972637</v>
+      </c>
+      <c r="G26">
+        <v>-0.05055052101862652</v>
+      </c>
+      <c r="H26">
+        <v>-0.05282813040054532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1973150848956552</v>
+        <v>-0.266256639685861</v>
       </c>
       <c r="C28">
-        <v>-0.2471291898877883</v>
+        <v>0.2046242054622042</v>
       </c>
       <c r="D28">
-        <v>-0.003860791607245811</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.001478760514425978</v>
+      </c>
+      <c r="E28">
+        <v>-0.058687109534745</v>
+      </c>
+      <c r="F28">
+        <v>0.04981307928994459</v>
+      </c>
+      <c r="G28">
+        <v>0.04512032336806257</v>
+      </c>
+      <c r="H28">
+        <v>0.0350346053037587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002533477373432502</v>
+        <v>-0.003202870373965036</v>
       </c>
       <c r="C29">
-        <v>0.02406685140495536</v>
+        <v>-0.02818043692778873</v>
       </c>
       <c r="D29">
-        <v>-0.1076969896681535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1067097226675354</v>
+      </c>
+      <c r="E29">
+        <v>0.02593496838491639</v>
+      </c>
+      <c r="F29">
+        <v>0.03304913867354943</v>
+      </c>
+      <c r="G29">
+        <v>-0.07513397529010538</v>
+      </c>
+      <c r="H29">
+        <v>-0.06996573762778588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02937726746965139</v>
+        <v>-0.02558661660187764</v>
       </c>
       <c r="C30">
-        <v>0.06478068006659486</v>
+        <v>-0.07868166384758761</v>
       </c>
       <c r="D30">
-        <v>-0.1711311448041136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1690148839748409</v>
+      </c>
+      <c r="E30">
+        <v>0.02816494801805066</v>
+      </c>
+      <c r="F30">
+        <v>0.03778677649501042</v>
+      </c>
+      <c r="G30">
+        <v>-0.04549098273450757</v>
+      </c>
+      <c r="H30">
+        <v>-0.0224881089437686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0542866180664607</v>
+        <v>-0.03597636284543945</v>
       </c>
       <c r="C31">
-        <v>0.07695592427063849</v>
+        <v>-0.08488576626006034</v>
       </c>
       <c r="D31">
-        <v>-0.07010562570708619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04756674428306817</v>
+      </c>
+      <c r="E31">
+        <v>0.00296737048578858</v>
+      </c>
+      <c r="F31">
+        <v>0.02189703553625839</v>
+      </c>
+      <c r="G31">
+        <v>-0.02073140669535152</v>
+      </c>
+      <c r="H31">
+        <v>-0.01778336025152512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02614986418716492</v>
+        <v>-0.02282049524992685</v>
       </c>
       <c r="C32">
-        <v>0.02739245387412636</v>
+        <v>-0.03437289067519995</v>
       </c>
       <c r="D32">
-        <v>-0.1163601863461789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1279236729180857</v>
+      </c>
+      <c r="E32">
+        <v>-0.009450622486290593</v>
+      </c>
+      <c r="F32">
+        <v>0.04839624519117267</v>
+      </c>
+      <c r="G32">
+        <v>-0.04227988864991179</v>
+      </c>
+      <c r="H32">
+        <v>-0.01020267038243396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02163725594244962</v>
+        <v>-0.0199180547997038</v>
       </c>
       <c r="C33">
-        <v>0.04419140123464011</v>
+        <v>-0.05146409270391776</v>
       </c>
       <c r="D33">
-        <v>-0.1621244428794871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1428044299596266</v>
+      </c>
+      <c r="E33">
+        <v>0.0009905716669461593</v>
+      </c>
+      <c r="F33">
+        <v>0.02868280043402817</v>
+      </c>
+      <c r="G33">
+        <v>-0.04422662904252123</v>
+      </c>
+      <c r="H33">
+        <v>-0.04200550585021256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03424192047930638</v>
+        <v>-0.02220089286507775</v>
       </c>
       <c r="C34">
-        <v>0.06236772960164384</v>
+        <v>-0.06517668076367938</v>
       </c>
       <c r="D34">
-        <v>-0.06968885720802477</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04842279067653133</v>
+      </c>
+      <c r="E34">
+        <v>0.0296507889927675</v>
+      </c>
+      <c r="F34">
+        <v>-0.02342280839015434</v>
+      </c>
+      <c r="G34">
+        <v>-0.04062167208719217</v>
+      </c>
+      <c r="H34">
+        <v>-0.05268474996408124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001291479101281554</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002504651777604202</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01157287948349597</v>
+      </c>
+      <c r="E35">
+        <v>0.001314387720816946</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007329103819400246</v>
+      </c>
+      <c r="G35">
+        <v>-0.002148418323197074</v>
+      </c>
+      <c r="H35">
+        <v>-0.003781571020595616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01800153943589774</v>
+        <v>-0.01650417484890898</v>
       </c>
       <c r="C36">
-        <v>0.00766151830712817</v>
+        <v>-0.0194122649943118</v>
       </c>
       <c r="D36">
-        <v>-0.1015559519581733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08650855114984715</v>
+      </c>
+      <c r="E36">
+        <v>0.0004026943826856482</v>
+      </c>
+      <c r="F36">
+        <v>0.02508278743574975</v>
+      </c>
+      <c r="G36">
+        <v>-0.03369244374696535</v>
+      </c>
+      <c r="H36">
+        <v>-0.04771914500273588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01878800771148362</v>
+        <v>-0.02283984378976378</v>
       </c>
       <c r="C38">
-        <v>0.01552312696738409</v>
+        <v>-0.02084187001698936</v>
       </c>
       <c r="D38">
-        <v>-0.09220005380419548</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08620784681693694</v>
+      </c>
+      <c r="E38">
+        <v>-0.01676406780728757</v>
+      </c>
+      <c r="F38">
+        <v>-0.02117061446712836</v>
+      </c>
+      <c r="G38">
+        <v>-0.0400772936812557</v>
+      </c>
+      <c r="H38">
+        <v>-0.0353296262776831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03696909037938528</v>
+        <v>-0.02654380361169396</v>
       </c>
       <c r="C39">
-        <v>0.05846716543520352</v>
+        <v>-0.07406305249019905</v>
       </c>
       <c r="D39">
-        <v>-0.1149130462892163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1099197325771354</v>
+      </c>
+      <c r="E39">
+        <v>0.03701865780080475</v>
+      </c>
+      <c r="F39">
+        <v>-0.006640198174612927</v>
+      </c>
+      <c r="G39">
+        <v>-0.05266544330521524</v>
+      </c>
+      <c r="H39">
+        <v>-0.08292140092594125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01575124938271363</v>
+        <v>-0.00984904878136769</v>
       </c>
       <c r="C40">
-        <v>0.04430285272539092</v>
+        <v>-0.04141148664857891</v>
       </c>
       <c r="D40">
-        <v>-0.1186069814441761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1050338792726869</v>
+      </c>
+      <c r="E40">
+        <v>0.001571027042232606</v>
+      </c>
+      <c r="F40">
+        <v>0.03889087322031574</v>
+      </c>
+      <c r="G40">
+        <v>-0.2267361359089351</v>
+      </c>
+      <c r="H40">
+        <v>0.06712696822935114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0318218761222688</v>
+        <v>-0.02862151712532971</v>
       </c>
       <c r="C41">
-        <v>0.005781640112748508</v>
+        <v>-0.01656694968788656</v>
       </c>
       <c r="D41">
-        <v>-0.09254901260135676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06356844747211036</v>
+      </c>
+      <c r="E41">
+        <v>-0.0167213028824966</v>
+      </c>
+      <c r="F41">
+        <v>0.006046411770169218</v>
+      </c>
+      <c r="G41">
+        <v>-0.04121842984558861</v>
+      </c>
+      <c r="H41">
+        <v>-0.02606480890109701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02344623341487726</v>
+        <v>-0.01936741907773125</v>
       </c>
       <c r="C43">
-        <v>0.01249655559721182</v>
+        <v>-0.0202665271825493</v>
       </c>
       <c r="D43">
-        <v>-0.112833927375431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08090453541170134</v>
+      </c>
+      <c r="E43">
+        <v>-0.004781711328031769</v>
+      </c>
+      <c r="F43">
+        <v>0.008007584668730781</v>
+      </c>
+      <c r="G43">
+        <v>-0.05409796749395903</v>
+      </c>
+      <c r="H43">
+        <v>-0.04994034614099248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.00945143307404815</v>
+        <v>-0.009748083140742646</v>
       </c>
       <c r="C44">
-        <v>0.04377099974010178</v>
+        <v>-0.04493370951660199</v>
       </c>
       <c r="D44">
-        <v>-0.1048309570115449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1148283732460545</v>
+      </c>
+      <c r="E44">
+        <v>-0.007640160680455726</v>
+      </c>
+      <c r="F44">
+        <v>0.02205856298138301</v>
+      </c>
+      <c r="G44">
+        <v>-0.04678459676196371</v>
+      </c>
+      <c r="H44">
+        <v>-0.03720743138346807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0136565277413767</v>
+        <v>-0.008512313964811152</v>
       </c>
       <c r="C46">
-        <v>0.02610698814630392</v>
+        <v>-0.03351536670113002</v>
       </c>
       <c r="D46">
-        <v>-0.1133734057454874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09931415011199114</v>
+      </c>
+      <c r="E46">
+        <v>0.01161242470630349</v>
+      </c>
+      <c r="F46">
+        <v>0.02388783389012675</v>
+      </c>
+      <c r="G46">
+        <v>-0.07077238668425978</v>
+      </c>
+      <c r="H46">
+        <v>-0.08047236560960383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09075065216318838</v>
+        <v>-0.065749470509578</v>
       </c>
       <c r="C47">
-        <v>0.08927236003380125</v>
+        <v>-0.105812893673895</v>
       </c>
       <c r="D47">
-        <v>-0.0469284279979893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02965876280052378</v>
+      </c>
+      <c r="E47">
+        <v>-0.01627486380856444</v>
+      </c>
+      <c r="F47">
+        <v>0.006138556370177886</v>
+      </c>
+      <c r="G47">
+        <v>0.0360108160373872</v>
+      </c>
+      <c r="H47">
+        <v>-0.02064570188629972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01200536827936519</v>
+        <v>-0.01136824542606648</v>
       </c>
       <c r="C48">
-        <v>0.02075495287096972</v>
+        <v>-0.02729475493916805</v>
       </c>
       <c r="D48">
-        <v>-0.1015799463461604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09164890975469729</v>
+      </c>
+      <c r="E48">
+        <v>-0.02038810139122912</v>
+      </c>
+      <c r="F48">
+        <v>0.02961857829637692</v>
+      </c>
+      <c r="G48">
+        <v>-0.05075119301781088</v>
+      </c>
+      <c r="H48">
+        <v>-0.059330757803324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04982062100267701</v>
+        <v>-0.03440817460548697</v>
       </c>
       <c r="C50">
-        <v>0.06122042577533345</v>
+        <v>-0.0718992256826754</v>
       </c>
       <c r="D50">
-        <v>-0.0749264540368678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05940589205113683</v>
+      </c>
+      <c r="E50">
+        <v>-0.00168999277240464</v>
+      </c>
+      <c r="F50">
+        <v>0.01226256281986297</v>
+      </c>
+      <c r="G50">
+        <v>-0.02852775569063948</v>
+      </c>
+      <c r="H50">
+        <v>0.003070009211028443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007368084587986253</v>
+        <v>-0.006312263454370422</v>
       </c>
       <c r="C51">
-        <v>0.01123823281476874</v>
+        <v>-0.0182908331412326</v>
       </c>
       <c r="D51">
-        <v>-0.07841748454322044</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08402772146710705</v>
+      </c>
+      <c r="E51">
+        <v>0.01950168083895777</v>
+      </c>
+      <c r="F51">
+        <v>0.03577593725707764</v>
+      </c>
+      <c r="G51">
+        <v>-0.07091213953369643</v>
+      </c>
+      <c r="H51">
+        <v>-0.02393801976496631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1052864381052323</v>
+        <v>-0.08442356282491377</v>
       </c>
       <c r="C53">
-        <v>0.1095612086189574</v>
+        <v>-0.1301863182322318</v>
       </c>
       <c r="D53">
-        <v>-0.01106810607534262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005530153169606764</v>
+      </c>
+      <c r="E53">
+        <v>-0.0597495863509195</v>
+      </c>
+      <c r="F53">
+        <v>0.07889313888582421</v>
+      </c>
+      <c r="G53">
+        <v>-0.01562426703388054</v>
+      </c>
+      <c r="H53">
+        <v>0.01899014117155832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01819251293842229</v>
+        <v>-0.01487655853782153</v>
       </c>
       <c r="C54">
-        <v>0.02688324975328556</v>
+        <v>-0.03557873071205948</v>
       </c>
       <c r="D54">
-        <v>-0.124583399233075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.1011681220553509</v>
+      </c>
+      <c r="E54">
+        <v>-0.001188671778880574</v>
+      </c>
+      <c r="F54">
+        <v>0.006952771375252215</v>
+      </c>
+      <c r="G54">
+        <v>-0.07883275243832263</v>
+      </c>
+      <c r="H54">
+        <v>-0.04080841871716096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09671319389529866</v>
+        <v>-0.07477069903877459</v>
       </c>
       <c r="C55">
-        <v>0.08533035721579664</v>
+        <v>-0.1050032497154308</v>
       </c>
       <c r="D55">
-        <v>0.006322316485698835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01290848359471287</v>
+      </c>
+      <c r="E55">
+        <v>-0.01777642246874585</v>
+      </c>
+      <c r="F55">
+        <v>0.04376614185233721</v>
+      </c>
+      <c r="G55">
+        <v>-0.01744233129077926</v>
+      </c>
+      <c r="H55">
+        <v>0.04078145034245529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1336475469703214</v>
+        <v>-0.1031188814248671</v>
       </c>
       <c r="C56">
-        <v>0.1168407311708565</v>
+        <v>-0.1523205773786246</v>
       </c>
       <c r="D56">
-        <v>0.009259293121485056</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01570866176899821</v>
+      </c>
+      <c r="E56">
+        <v>-0.04617387602951141</v>
+      </c>
+      <c r="F56">
+        <v>0.0393694697396517</v>
+      </c>
+      <c r="G56">
+        <v>-0.01348089180605795</v>
+      </c>
+      <c r="H56">
+        <v>0.06646872847263072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009984798963777426</v>
+        <v>0.001604498518938038</v>
       </c>
       <c r="C58">
-        <v>0.03983725019591697</v>
+        <v>-0.05312398312222871</v>
       </c>
       <c r="D58">
-        <v>-0.2270316004059248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2861018327090641</v>
+      </c>
+      <c r="E58">
+        <v>-0.04031285103106814</v>
+      </c>
+      <c r="F58">
+        <v>0.07510890077144754</v>
+      </c>
+      <c r="G58">
+        <v>-0.02481836295239949</v>
+      </c>
+      <c r="H58">
+        <v>0.1545871034316229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1510099407082283</v>
+        <v>-0.2044069679767757</v>
       </c>
       <c r="C59">
-        <v>-0.168647148242736</v>
+        <v>0.1350634992767729</v>
       </c>
       <c r="D59">
-        <v>-0.05225917481810263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06467404689958249</v>
+      </c>
+      <c r="E59">
+        <v>-0.04241762917628388</v>
+      </c>
+      <c r="F59">
+        <v>0.005559281343670497</v>
+      </c>
+      <c r="G59">
+        <v>0.01312306055986649</v>
+      </c>
+      <c r="H59">
+        <v>0.01788965131784439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2360270870387219</v>
+        <v>-0.2059758456935729</v>
       </c>
       <c r="C60">
-        <v>0.07812690634854125</v>
+        <v>-0.1357918527193805</v>
       </c>
       <c r="D60">
-        <v>-0.1182818969510128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06637932154069608</v>
+      </c>
+      <c r="E60">
+        <v>0.3015399286402666</v>
+      </c>
+      <c r="F60">
+        <v>-0.1432745883902283</v>
+      </c>
+      <c r="G60">
+        <v>0.2836340823955645</v>
+      </c>
+      <c r="H60">
+        <v>0.04058952660845811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04015689469635644</v>
+        <v>-0.02919147603632747</v>
       </c>
       <c r="C61">
-        <v>0.05532048982045815</v>
+        <v>-0.06777072244746611</v>
       </c>
       <c r="D61">
-        <v>-0.1141707781449801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09213260883502454</v>
+      </c>
+      <c r="E61">
+        <v>0.02546528762346373</v>
+      </c>
+      <c r="F61">
+        <v>-0.007895593606072461</v>
+      </c>
+      <c r="G61">
+        <v>-0.03485784782793366</v>
+      </c>
+      <c r="H61">
+        <v>-0.080612590955253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01398527250213858</v>
+        <v>-0.0102986653882237</v>
       </c>
       <c r="C63">
-        <v>0.02567319929266982</v>
+        <v>-0.03460783556643382</v>
       </c>
       <c r="D63">
-        <v>-0.09419153050927581</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07761392190655822</v>
+      </c>
+      <c r="E63">
+        <v>0.0177811662042645</v>
+      </c>
+      <c r="F63">
+        <v>0.02189536984401828</v>
+      </c>
+      <c r="G63">
+        <v>-0.04104812197595453</v>
+      </c>
+      <c r="H63">
+        <v>-0.04065157007970203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05436506931607778</v>
+        <v>-0.03670121247223861</v>
       </c>
       <c r="C64">
-        <v>0.07179216681282613</v>
+        <v>-0.08372466094031961</v>
       </c>
       <c r="D64">
-        <v>-0.05369181807450203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04998739879353612</v>
+      </c>
+      <c r="E64">
+        <v>0.007335575695458228</v>
+      </c>
+      <c r="F64">
+        <v>0.05262223407955071</v>
+      </c>
+      <c r="G64">
+        <v>-0.01573225237734018</v>
+      </c>
+      <c r="H64">
+        <v>-0.1094672515221371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03010258592567345</v>
+        <v>-0.02559756041383164</v>
       </c>
       <c r="C65">
-        <v>0.02205765275230578</v>
+        <v>-0.03621265302986719</v>
       </c>
       <c r="D65">
-        <v>-0.122743561298377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1090983017696892</v>
+      </c>
+      <c r="E65">
+        <v>0.03123227611223059</v>
+      </c>
+      <c r="F65">
+        <v>0.02112199084685858</v>
+      </c>
+      <c r="G65">
+        <v>-0.02154410051954422</v>
+      </c>
+      <c r="H65">
+        <v>-0.002017120356136576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03919061018811729</v>
+        <v>-0.02765206203770023</v>
       </c>
       <c r="C66">
-        <v>0.06815954108332917</v>
+        <v>-0.08741228812671033</v>
       </c>
       <c r="D66">
-        <v>-0.1285440185995119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1354359651493925</v>
+      </c>
+      <c r="E66">
+        <v>0.03147328799933082</v>
+      </c>
+      <c r="F66">
+        <v>-0.01621084454804409</v>
+      </c>
+      <c r="G66">
+        <v>-0.0291369852184744</v>
+      </c>
+      <c r="H66">
+        <v>-0.04882440189492931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04006966405970608</v>
+        <v>-0.03833992169509313</v>
       </c>
       <c r="C67">
-        <v>0.02179884634956692</v>
+        <v>-0.0300595510977789</v>
       </c>
       <c r="D67">
-        <v>-0.04860396342972707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03610306354169892</v>
+      </c>
+      <c r="E67">
+        <v>-0.001653457469355781</v>
+      </c>
+      <c r="F67">
+        <v>-0.03374602810051377</v>
+      </c>
+      <c r="G67">
+        <v>-0.04119406587451539</v>
+      </c>
+      <c r="H67">
+        <v>-0.04733074306739374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1853811040625495</v>
+        <v>-0.235753728443013</v>
       </c>
       <c r="C68">
-        <v>-0.1978860858799794</v>
+        <v>0.1510778397340702</v>
       </c>
       <c r="D68">
-        <v>-0.02345755945380564</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03039923744366756</v>
+      </c>
+      <c r="E68">
+        <v>-0.007220098833160703</v>
+      </c>
+      <c r="F68">
+        <v>0.03246922455900311</v>
+      </c>
+      <c r="G68">
+        <v>-0.02322609787639512</v>
+      </c>
+      <c r="H68">
+        <v>0.06547712176118554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08293055203261812</v>
+        <v>-0.05762341147689488</v>
       </c>
       <c r="C69">
-        <v>0.1035308080247219</v>
+        <v>-0.1112986100516438</v>
       </c>
       <c r="D69">
-        <v>-0.07310050276021256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03960539307082166</v>
+      </c>
+      <c r="E69">
+        <v>0.007758927383787081</v>
+      </c>
+      <c r="F69">
+        <v>-0.001594134752845308</v>
+      </c>
+      <c r="G69">
+        <v>0.01569273641711931</v>
+      </c>
+      <c r="H69">
+        <v>-0.02441732717552866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1740883380293312</v>
+        <v>-0.2244118960232658</v>
       </c>
       <c r="C71">
-        <v>-0.205554472911061</v>
+        <v>0.1611666797265731</v>
       </c>
       <c r="D71">
-        <v>-0.03044731102368671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03104207328839938</v>
+      </c>
+      <c r="E71">
+        <v>-0.01898291342222759</v>
+      </c>
+      <c r="F71">
+        <v>0.04450918800298791</v>
+      </c>
+      <c r="G71">
+        <v>-0.04172072718140617</v>
+      </c>
+      <c r="H71">
+        <v>0.04486616080928711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1100395816364524</v>
+        <v>-0.08804126472587026</v>
       </c>
       <c r="C72">
-        <v>0.06446398776780406</v>
+        <v>-0.09982127557779316</v>
       </c>
       <c r="D72">
-        <v>-0.07995980291077567</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07344408784415549</v>
+      </c>
+      <c r="E72">
+        <v>0.07259001733525583</v>
+      </c>
+      <c r="F72">
+        <v>0.01623986793804573</v>
+      </c>
+      <c r="G72">
+        <v>-0.02200742889084293</v>
+      </c>
+      <c r="H72">
+        <v>-0.03993270465943979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2061678823861414</v>
+        <v>-0.1808477301178913</v>
       </c>
       <c r="C73">
-        <v>0.03162286722376632</v>
+        <v>-0.1005133802659773</v>
       </c>
       <c r="D73">
-        <v>-0.1572977302388066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06203811223309328</v>
+      </c>
+      <c r="E73">
+        <v>0.4941248934365376</v>
+      </c>
+      <c r="F73">
+        <v>-0.1980613667528719</v>
+      </c>
+      <c r="G73">
+        <v>0.3616626358297365</v>
+      </c>
+      <c r="H73">
+        <v>-0.09404673209070312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1094257304505402</v>
+        <v>-0.08200024861255246</v>
       </c>
       <c r="C74">
-        <v>0.09119862901173488</v>
+        <v>-0.1164868144831918</v>
       </c>
       <c r="D74">
-        <v>0.02481713427827064</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03145592871213665</v>
+      </c>
+      <c r="E74">
+        <v>-0.02895829215286969</v>
+      </c>
+      <c r="F74">
+        <v>0.06743049064546548</v>
+      </c>
+      <c r="G74">
+        <v>0.01486791182116705</v>
+      </c>
+      <c r="H74">
+        <v>0.02933611500969124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2564828186117881</v>
+        <v>-0.2001838746907091</v>
       </c>
       <c r="C75">
-        <v>0.1602897683455982</v>
+        <v>-0.2171748680960231</v>
       </c>
       <c r="D75">
-        <v>0.1102905685971586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1279142220608094</v>
+      </c>
+      <c r="E75">
+        <v>-0.09894304026831102</v>
+      </c>
+      <c r="F75">
+        <v>-0.002559038514347491</v>
+      </c>
+      <c r="G75">
+        <v>-0.02875478204596743</v>
+      </c>
+      <c r="H75">
+        <v>0.05938015617154014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1459559659952628</v>
+        <v>-0.1094368009254828</v>
       </c>
       <c r="C76">
-        <v>0.1215526042354712</v>
+        <v>-0.1524069315397771</v>
       </c>
       <c r="D76">
-        <v>-0.001425330219323301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01808245453002362</v>
+      </c>
+      <c r="E76">
+        <v>-0.04876462190083565</v>
+      </c>
+      <c r="F76">
+        <v>0.03142244067286072</v>
+      </c>
+      <c r="G76">
+        <v>-0.04691869985480881</v>
+      </c>
+      <c r="H76">
+        <v>0.01912143955710443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0429324908887521</v>
+        <v>-0.04887940938009418</v>
       </c>
       <c r="C77">
-        <v>0.07700673542596866</v>
+        <v>-0.08325882504962395</v>
       </c>
       <c r="D77">
-        <v>-0.06469986875997051</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2092395400485634</v>
+      </c>
+      <c r="E77">
+        <v>-0.6301034769054755</v>
+      </c>
+      <c r="F77">
+        <v>-0.4560296427758486</v>
+      </c>
+      <c r="G77">
+        <v>0.4259705273576348</v>
+      </c>
+      <c r="H77">
+        <v>0.1428910904693693</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04083404018525602</v>
+        <v>-0.03446350476091158</v>
       </c>
       <c r="C78">
-        <v>0.06327755365243093</v>
+        <v>-0.07656454001425331</v>
       </c>
       <c r="D78">
-        <v>-0.1496790639886048</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1418994018591011</v>
+      </c>
+      <c r="E78">
+        <v>0.02389567426350924</v>
+      </c>
+      <c r="F78">
+        <v>0.02705822773939093</v>
+      </c>
+      <c r="G78">
+        <v>0.01811246893266466</v>
+      </c>
+      <c r="H78">
+        <v>-0.01102689833030886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06299275051964288</v>
+        <v>-0.0510354449886397</v>
       </c>
       <c r="C79">
-        <v>0.1102468956626588</v>
+        <v>-0.124272182447677</v>
       </c>
       <c r="D79">
-        <v>0.1171457997145362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0459038500523229</v>
+      </c>
+      <c r="E79">
+        <v>-0.1936285436884645</v>
+      </c>
+      <c r="F79">
+        <v>0.7301953454933285</v>
+      </c>
+      <c r="G79">
+        <v>0.486370838813435</v>
+      </c>
+      <c r="H79">
+        <v>-0.1431422273454682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.01950479421695704</v>
+        <v>-0.01465589452351476</v>
       </c>
       <c r="C80">
-        <v>0.04874766989516231</v>
+        <v>-0.050257267441936</v>
       </c>
       <c r="D80">
-        <v>-0.03276816329135017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03340129003451299</v>
+      </c>
+      <c r="E80">
+        <v>0.00618046295311183</v>
+      </c>
+      <c r="F80">
+        <v>0.01734868001050871</v>
+      </c>
+      <c r="G80">
+        <v>-0.06508049584963552</v>
+      </c>
+      <c r="H80">
+        <v>0.02432874914768337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1324682835154799</v>
+        <v>-0.09569458975840051</v>
       </c>
       <c r="C81">
-        <v>0.1242983429929138</v>
+        <v>-0.147123947734785</v>
       </c>
       <c r="D81">
-        <v>0.08339271554171183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08658760282531502</v>
+      </c>
+      <c r="E81">
+        <v>-0.09244019128990122</v>
+      </c>
+      <c r="F81">
+        <v>0.05967521091703544</v>
+      </c>
+      <c r="G81">
+        <v>-0.07151056005235756</v>
+      </c>
+      <c r="H81">
+        <v>0.001783290196702815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2624658491186011</v>
+        <v>-0.1833748972845163</v>
       </c>
       <c r="C82">
-        <v>0.2521233555641267</v>
+        <v>-0.2807824596833777</v>
       </c>
       <c r="D82">
-        <v>0.2351772586900187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2305498528056612</v>
+      </c>
+      <c r="E82">
+        <v>-0.04125645372323512</v>
+      </c>
+      <c r="F82">
+        <v>-0.06867555173347198</v>
+      </c>
+      <c r="G82">
+        <v>-0.06798106278166488</v>
+      </c>
+      <c r="H82">
+        <v>0.0008977852436167131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02434266237795597</v>
+        <v>-0.01265015272623623</v>
       </c>
       <c r="C83">
-        <v>0.05942002726267823</v>
+        <v>-0.05596280551579426</v>
       </c>
       <c r="D83">
-        <v>-0.04513380880168041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05426164643876401</v>
+      </c>
+      <c r="E83">
+        <v>-0.07918641966827163</v>
+      </c>
+      <c r="F83">
+        <v>-0.05170880633199474</v>
+      </c>
+      <c r="G83">
+        <v>-0.01321387235746961</v>
+      </c>
+      <c r="H83">
+        <v>-0.01356856490118439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004384916640281478</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00938997268710994</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02885756266648385</v>
+      </c>
+      <c r="E84">
+        <v>-0.00600224637786421</v>
+      </c>
+      <c r="F84">
+        <v>0.01778748823879042</v>
+      </c>
+      <c r="G84">
+        <v>-0.02822171817010088</v>
+      </c>
+      <c r="H84">
+        <v>0.02159762888960749</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1676286193502098</v>
+        <v>-0.1258230982053651</v>
       </c>
       <c r="C85">
-        <v>0.1279152733356279</v>
+        <v>-0.1703764596796098</v>
       </c>
       <c r="D85">
-        <v>0.06294317975259926</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08697449265672853</v>
+      </c>
+      <c r="E85">
+        <v>-0.01487529788794692</v>
+      </c>
+      <c r="F85">
+        <v>0.09009284764097665</v>
+      </c>
+      <c r="G85">
+        <v>-0.01173038923909212</v>
+      </c>
+      <c r="H85">
+        <v>0.01533844790028744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01651332754428404</v>
+        <v>-0.01497107627913471</v>
       </c>
       <c r="C86">
-        <v>0.02957549992041149</v>
+        <v>-0.03081648450219902</v>
       </c>
       <c r="D86">
-        <v>-0.1023864188644077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1096782963648079</v>
+      </c>
+      <c r="E86">
+        <v>-0.04623681566907411</v>
+      </c>
+      <c r="F86">
+        <v>-0.02150017009712402</v>
+      </c>
+      <c r="G86">
+        <v>-0.0192543727324502</v>
+      </c>
+      <c r="H86">
+        <v>0.001540929320079929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02810447943992209</v>
+        <v>-0.02841173589646744</v>
       </c>
       <c r="C87">
-        <v>0.02512269529685822</v>
+        <v>-0.04142474766482175</v>
       </c>
       <c r="D87">
-        <v>-0.1314257009889808</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1486768992954691</v>
+      </c>
+      <c r="E87">
+        <v>-0.02000511385648264</v>
+      </c>
+      <c r="F87">
+        <v>0.02947069215258798</v>
+      </c>
+      <c r="G87">
+        <v>-0.05421901436935964</v>
+      </c>
+      <c r="H87">
+        <v>-0.001272737708579568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06808232755890407</v>
+        <v>-0.05328389064173103</v>
       </c>
       <c r="C88">
-        <v>0.04699555557924926</v>
+        <v>-0.06378693301403567</v>
       </c>
       <c r="D88">
-        <v>-0.05946958495204396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02545887186713933</v>
+      </c>
+      <c r="E88">
+        <v>0.01890654367508656</v>
+      </c>
+      <c r="F88">
+        <v>0.03131214519539459</v>
+      </c>
+      <c r="G88">
+        <v>-0.01547754542315263</v>
+      </c>
+      <c r="H88">
+        <v>-0.0340706129510607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2798095127286112</v>
+        <v>-0.3529906955682388</v>
       </c>
       <c r="C89">
-        <v>-0.370154957361451</v>
+        <v>0.2786959159617427</v>
       </c>
       <c r="D89">
-        <v>-0.01338829004207917</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02030722808952174</v>
+      </c>
+      <c r="E89">
+        <v>-0.04557439878726153</v>
+      </c>
+      <c r="F89">
+        <v>0.00780775248235959</v>
+      </c>
+      <c r="G89">
+        <v>-0.09002251114975461</v>
+      </c>
+      <c r="H89">
+        <v>-0.1383081023695082</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2263529896242152</v>
+        <v>-0.2792511531778965</v>
       </c>
       <c r="C90">
-        <v>-0.271649206486107</v>
+        <v>0.1976494174388674</v>
       </c>
       <c r="D90">
-        <v>-0.03838274934360229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04438427415340476</v>
+      </c>
+      <c r="E90">
+        <v>-0.01597421027290588</v>
+      </c>
+      <c r="F90">
+        <v>-0.01066831141311163</v>
+      </c>
+      <c r="G90">
+        <v>-0.0470524447357474</v>
+      </c>
+      <c r="H90">
+        <v>0.05626147988897814</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1710236185437949</v>
+        <v>-0.1242419246761469</v>
       </c>
       <c r="C91">
-        <v>0.1703970294227491</v>
+        <v>-0.1913832919682447</v>
       </c>
       <c r="D91">
-        <v>0.1048685808201399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1043355579306509</v>
+      </c>
+      <c r="E91">
+        <v>-0.09846647308505202</v>
+      </c>
+      <c r="F91">
+        <v>0.08687412517882109</v>
+      </c>
+      <c r="G91">
+        <v>0.002440323962770692</v>
+      </c>
+      <c r="H91">
+        <v>0.01761673218556141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.190932286736494</v>
+        <v>-0.2677557173852499</v>
       </c>
       <c r="C92">
-        <v>-0.2678100809892328</v>
+        <v>0.2237474275397244</v>
       </c>
       <c r="D92">
-        <v>-0.02337410955572993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03824036391972806</v>
+      </c>
+      <c r="E92">
+        <v>-0.1072498089031273</v>
+      </c>
+      <c r="F92">
+        <v>0.04599356172681693</v>
+      </c>
+      <c r="G92">
+        <v>-0.09400942088155405</v>
+      </c>
+      <c r="H92">
+        <v>-0.01665798355390227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2454017306927135</v>
+        <v>-0.2960149333933031</v>
       </c>
       <c r="C93">
-        <v>-0.2949374272387568</v>
+        <v>0.2139494850660192</v>
       </c>
       <c r="D93">
-        <v>-0.02846042273493663</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.007650857117304581</v>
+      </c>
+      <c r="E93">
+        <v>0.03152917943017462</v>
+      </c>
+      <c r="F93">
+        <v>0.030694198948294</v>
+      </c>
+      <c r="G93">
+        <v>0.03129565835718103</v>
+      </c>
+      <c r="H93">
+        <v>0.002924618253633042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3520659049338772</v>
+        <v>-0.269436265759439</v>
       </c>
       <c r="C94">
-        <v>0.2224573030006557</v>
+        <v>-0.3073636002806314</v>
       </c>
       <c r="D94">
-        <v>0.3397339097087412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3502691427916836</v>
+      </c>
+      <c r="E94">
+        <v>-0.03417027826780816</v>
+      </c>
+      <c r="F94">
+        <v>-0.1128544378886198</v>
+      </c>
+      <c r="G94">
+        <v>-0.293262162442686</v>
+      </c>
+      <c r="H94">
+        <v>0.1546092755324449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06926410360044136</v>
+        <v>-0.05906862984438738</v>
       </c>
       <c r="C95">
-        <v>0.04687342928216112</v>
+        <v>-0.06952074557799917</v>
       </c>
       <c r="D95">
-        <v>-0.09329264048347306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09345151776161317</v>
+      </c>
+      <c r="E95">
+        <v>-0.1946261893197533</v>
+      </c>
+      <c r="F95">
+        <v>-0.254759872483215</v>
+      </c>
+      <c r="G95">
+        <v>0.006171238825139209</v>
+      </c>
+      <c r="H95">
+        <v>-0.531181921393439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-4.841737446772162e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.119406654942883e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0005066725627758194</v>
+      </c>
+      <c r="E97">
+        <v>9.251728805301338e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.000510476182375489</v>
+      </c>
+      <c r="G97">
+        <v>0.0001720289464439786</v>
+      </c>
+      <c r="H97">
+        <v>-0.0005316467290819453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1723684895083941</v>
+        <v>-0.1534237765217707</v>
       </c>
       <c r="C98">
-        <v>0.05541887983089058</v>
+        <v>-0.1053745195001154</v>
       </c>
       <c r="D98">
-        <v>-0.09363085821557673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05198009334560092</v>
+      </c>
+      <c r="E98">
+        <v>0.3019983504962471</v>
+      </c>
+      <c r="F98">
+        <v>-0.1126076923045083</v>
+      </c>
+      <c r="G98">
+        <v>0.2200976582873347</v>
+      </c>
+      <c r="H98">
+        <v>-0.02118041467662249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002831145203897631</v>
+        <v>-0.00344883884462452</v>
       </c>
       <c r="C101">
-        <v>0.02358689359873862</v>
+        <v>-0.02760394033454537</v>
       </c>
       <c r="D101">
-        <v>-0.1080593998043157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1064626164666636</v>
+      </c>
+      <c r="E101">
+        <v>0.0247108774878708</v>
+      </c>
+      <c r="F101">
+        <v>0.03303137372630666</v>
+      </c>
+      <c r="G101">
+        <v>-0.07540256306648639</v>
+      </c>
+      <c r="H101">
+        <v>-0.07078654281984476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1224621128277594</v>
+        <v>-0.08172278404279069</v>
       </c>
       <c r="C102">
-        <v>0.1307092094992109</v>
+        <v>-0.1378552651959093</v>
       </c>
       <c r="D102">
-        <v>0.08733069310106553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09335424122236519</v>
+      </c>
+      <c r="E102">
+        <v>-0.03925225432026121</v>
+      </c>
+      <c r="F102">
+        <v>-0.04596927105961888</v>
+      </c>
+      <c r="G102">
+        <v>-0.01465525301312281</v>
+      </c>
+      <c r="H102">
+        <v>-0.04114316354214757</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
